--- a/Listado.xlsx
+++ b/Listado.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="1001" sheetId="1" r:id="rId1"/>
+    <sheet name="601" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Idenficacion</t>
   </si>
@@ -19,7 +19,10 @@
     <t>Nombre Completo</t>
   </si>
   <si>
-    <t>Mariela Zambrana</t>
+    <t>Camilo Soler</t>
+  </si>
+  <si>
+    <t>Grey Yamile Bucuru</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -82,11 +85,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>12312312</v>
+      <c r="A2" s="0" t="n">
+        <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="n">
+        <v>121223</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Listado.xlsx
+++ b/Listado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Idenficacion</t>
   </si>
@@ -19,10 +19,7 @@
     <t>Nombre Completo</t>
   </si>
   <si>
-    <t>Camilo Soler</t>
-  </si>
-  <si>
-    <t>Grey Yamile Bucuru</t>
+    <t>Camilo   Soler  </t>
   </si>
 </sst>
 </file>
@@ -70,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -92,14 +89,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="n">
-        <v>121223</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Listado.xlsx
+++ b/Listado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Idenficacion</t>
   </si>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <t>Camilo   Soler  </t>
+  </si>
+  <si>
+    <t>Daniel Guillermo   Soler Bucuru  </t>
+  </si>
+  <si>
+    <t>Carlos Perez</t>
   </si>
 </sst>
 </file>
@@ -67,7 +73,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -89,6 +95,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="n">
+        <v>1070984384</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="n">
+        <v>1010101</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Listado.xlsx
+++ b/Listado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Idenficacion</t>
   </si>
@@ -19,10 +19,31 @@
     <t>Nombre Completo</t>
   </si>
   <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
+    <t>Nota 3</t>
+  </si>
+  <si>
+    <t>Nota 4</t>
+  </si>
+  <si>
+    <t>Nota 5</t>
+  </si>
+  <si>
+    <t>Nota 6</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
     <t>Camilo   Soler  </t>
   </si>
   <si>
-    <t>Daniel Guillermo   Soler Bucuru  </t>
+    <t>Daniel Guillermo     Soler Bucuru    </t>
   </si>
   <si>
     <t>Carlos Perez</t>
@@ -73,18 +94,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -92,7 +134,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -100,7 +142,7 @@
         <v>1070984384</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -108,7 +150,7 @@
         <v>1010101</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Listado.xlsx
+++ b/Listado.xlsx
@@ -11,30 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Idenficacion</t>
   </si>
   <si>
-    <t>Nombre Completo</t>
+    <t>NombreCompleto</t>
   </si>
   <si>
-    <t>Nota 1</t>
+    <t>Nota1</t>
   </si>
   <si>
-    <t>Nota 2</t>
+    <t>Nota2</t>
   </si>
   <si>
-    <t>Nota 3</t>
+    <t>Nota3</t>
   </si>
   <si>
-    <t>Nota 4</t>
+    <t>Nota4</t>
   </si>
   <si>
-    <t>Nota 5</t>
+    <t>Nota5</t>
   </si>
   <si>
-    <t>Nota 6</t>
+    <t>Nota6</t>
   </si>
   <si>
     <t>Promedio</t>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Carlos Perez</t>
+  </si>
+  <si>
+    <t>Daniel Guillermo Solorza</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -153,6 +156,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="n">
+        <v>1234321</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Listado.xlsx
+++ b/Listado.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="601" sheetId="1" r:id="rId1"/>
+    <sheet name="1001" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Idenficacion</t>
   </si>
@@ -40,16 +40,10 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>Camilo   Soler  </t>
-  </si>
-  <si>
-    <t>Daniel Guillermo     Soler Bucuru    </t>
+    <t>Mariela Zambrana</t>
   </si>
   <si>
     <t>Carlos Perez</t>
-  </si>
-  <si>
-    <t>Daniel Guillermo Solorza</t>
   </si>
 </sst>
 </file>
@@ -97,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -134,7 +128,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="0" t="n">
-        <v>100</v>
+        <v>12312312</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -142,26 +136,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="n">
-        <v>1070984384</v>
+        <v>123456</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="n">
-        <v>1010101</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="n">
-        <v>1234321</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
